--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2511.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2511.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.613496140583131</v>
+        <v>1.616400480270386</v>
       </c>
       <c r="B1">
-        <v>3.691650120784142</v>
+        <v>2.695095777511597</v>
       </c>
       <c r="C1">
-        <v>3.791137129816753</v>
+        <v>3.05919623374939</v>
       </c>
       <c r="D1">
-        <v>2.299333521683633</v>
+        <v>3.424724578857422</v>
       </c>
       <c r="E1">
-        <v>2.561514183168918</v>
+        <v>2.068240642547607</v>
       </c>
     </row>
   </sheetData>
